--- a/Flight_DDT_Checkpoint/Default.xlsx
+++ b/Flight_DDT_Checkpoint/Default.xlsx
@@ -187,9 +187,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -203,7 +201,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -211,10 +211,10 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -224,23 +224,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -555,24 +552,16 @@
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="b">
+      <c r="B2" s="5" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7">
-        <v>200</v>
-      </c>
-      <c r="B3" s="4" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
